--- a/biology/Zoologie/Atelerix_albiventris/Atelerix_albiventris.xlsx
+++ b/biology/Zoologie/Atelerix_albiventris/Atelerix_albiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Hérisson à ventre blanc[1] (Atelerix albiventris) est une espèce de mammifère insectivore de la famille des Erinaceidés. Cette très petite espèce de hérissons vit dans les déserts du sud de l'Afrique, du Sénégal au Soudan et à la Zambie. Les anglophones le nomment African pygmy hedgehog (hérisson pygmée d'Afrique) à cause de sa taille réduite ou encore four-toed hedgehog (hérisson à quatre doigts) en raison de cette particularité anatomique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hérisson à ventre blanc (Atelerix albiventris) est une espèce de mammifère insectivore de la famille des Erinaceidés. Cette très petite espèce de hérissons vit dans les déserts du sud de l'Afrique, du Sénégal au Soudan et à la Zambie. Les anglophones le nomment African pygmy hedgehog (hérisson pygmée d'Afrique) à cause de sa taille réduite ou encore four-toed hedgehog (hérisson à quatre doigts) en raison de cette particularité anatomique.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce hérisson vit en Afrique tropicale du nord-ouest, centre et est. Son aire de répartition s'étend du sud de la Mauritanie et du Sénégal à l'ouest jusqu'au Soudan, à l'Érythrée et à l'Éthiopie, en passant par la partie nord de l'Afrique centrale. A l'est, son aire de répartition s'étend vers le sud jusqu'au Malawi et au sud de la Zambie. 
 Il vit dans les prairies et steppes peu denses de type savane. 
